--- a/ig/sd-update-description-short/ValueSet-eclaire-group-characteristic-kind-vs.xlsx
+++ b/ig/sd-update-description-short/ValueSet-eclaire-group-characteristic-kind-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T14:33:28+00:00</t>
+    <t>2024-02-15T14:37:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
